--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RC08508\CypressComputers\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED0C38-1266-44E0-B72B-6EBACEF35820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46158F8-C500-46CB-BA61-3ABF8C2242F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>ComputerName</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Test Computer</t>
-  </si>
-  <si>
     <t>2010-06-05</t>
   </si>
   <si>
@@ -49,16 +46,55 @@
   </si>
   <si>
     <t>RCA</t>
+  </si>
+  <si>
+    <t>Surya Excel 1</t>
+  </si>
+  <si>
+    <t>Surya Excel 2</t>
+  </si>
+  <si>
+    <t>Surya Excel 3</t>
+  </si>
+  <si>
+    <t>Surya Excel 4</t>
+  </si>
+  <si>
+    <t>Surya Excel 5</t>
+  </si>
+  <si>
+    <t>Surya Excel 6</t>
+  </si>
+  <si>
+    <t>Surya Excel 7</t>
+  </si>
+  <si>
+    <t>Surya Excel 8</t>
+  </si>
+  <si>
+    <t>Surya Excel 9</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Create</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,7 +417,7 @@
     <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,134 +430,165 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
